--- a/SCD0010-115 - Penyesuaian Kriteria Account Plan secara Umum SRM/Default.xlsx
+++ b/SCD0010-115 - Penyesuaian Kriteria Account Plan secara Umum SRM/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="SCD0167- Account Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="SCD0010-115 - Account Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -183,10 +183,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="283845"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -478,7 +478,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -497,7 +497,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
